--- a/biology/Botanique/Delostoma_integrifolium/Delostoma_integrifolium.xlsx
+++ b/biology/Botanique/Delostoma_integrifolium/Delostoma_integrifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delostoma integrifolium est le nom d'une espèce d'arbustes des Andes, de la famille des Bignoniaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delostoma integrifolium est le nom d'une espèce d'arbustes des Andes, de la famille des Bignoniaceae.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste pouvant atteindre 4 ou 5 mètres de haut (généralement 2) poussant dans les Andes méridionales du Pérou, sur le versant Pacifique des Andes. S"accroche souvent aux pentes abruptes des montagnes. Fleurit à la saison des pluies, autour de février. Fleurs généralement roses, parfois blanches (couleur uniforme sur chaque arbuste). Nom quechua local (dept. Ayacucho, prov. Parinacochas): "jeroja". Aucune utilisation connue.
 </t>
@@ -570,8 +586,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Cette espèce possède de nombreuses autres appellations, synonymes mais non valides : Codazzia rosea H. Karst. &amp; Triana, Codazzia speciosa H. Karst. &amp; Triana, Delostoma hookeri Kraenzl., Delostoma loxense (Benth.) Sandwith, Delostoma nervosum A. DC., Delostoma roseum (H. Karst. &amp; Triana) K. Schum., Delostoma speciosum (H. Karst. &amp; Triana) K. Schum. ex Jackson, Delostoma weberbauerianum Kraenzl., Tecoma loxensis Benth[2].
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce possède de nombreuses autres appellations, synonymes mais non valides : Codazzia rosea H. Karst. &amp; Triana, Codazzia speciosa H. Karst. &amp; Triana, Delostoma hookeri Kraenzl., Delostoma loxense (Benth.) Sandwith, Delostoma nervosum A. DC., Delostoma roseum (H. Karst. &amp; Triana) K. Schum., Delostoma speciosum (H. Karst. &amp; Triana) K. Schum. ex Jackson, Delostoma weberbauerianum Kraenzl., Tecoma loxensis Benth.
 </t>
         </is>
       </c>
